--- a/output/inygo_rentals.xlsx
+++ b/output/inygo_rentals.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,7 +658,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://invygo.com/en-ae/dubai/rent-weekly-jac-s3-2023/67f3bc59f5d297dc072c22f7</t>
+          <t>https://invygo.com/en-ae/dubai/rent-weekly-jac-s3-2023/6826d9f7ddad2686205ddecd</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -682,7 +682,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>95000 KM</t>
+          <t>50000 KM</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://invygo.com/en-ae/dubai/rent-monthly-jac-s3-2023/67729fbc8663257f13ea39d5</t>
+          <t>https://invygo.com/en-ae/dubai/rent-weekly-jac-s3-2023/686b4b439325fc3688b95074</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -748,31 +748,31 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>57001 KM</t>
+          <t>65000 KM</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>monthly</t>
+          <t>weekly</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2050</v>
+        <v>980</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>2050</v>
+        <v>980</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1 month</t>
+          <t>1 week</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2500 km</t>
+          <t>1750 km</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -785,16 +785,12 @@
           <t>No additional cost</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>+ AED 75/month</t>
-        </is>
-      </c>
+      <c r="P5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://invygo.com/en-ae/dubai/rent-monthly-jac-s3-2023/67729fbc8663257f13ea39d5</t>
+          <t>https://invygo.com/en-ae/dubai/rent-monthly-jac-s3-2023/67729fbc866325f2a4ea39d4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -826,45 +822,19 @@
           <t>monthly</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v>2140</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2140</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>1 month</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>5000 km</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>+ AED 90/month</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>No additional cost</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>+ AED 75/month</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://invygo.com/en-ae/dubai/rent-monthly-jac-s3-2023/67729fbc8663257f13ea39d5</t>
+          <t>https://invygo.com/en-ae/dubai/rent-monthly-jac-s3-2023/680f6ad026720d557c758853</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -888,7 +858,7 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>57001 KM</t>
+          <t>50000 KM</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -897,22 +867,22 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>2050</v>
+        <v>2020</v>
       </c>
       <c r="J7" t="n">
-        <v>60</v>
+        <v>405</v>
       </c>
       <c r="K7" t="n">
-        <v>2030</v>
+        <v>1975</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>3 months</t>
+          <t>9 months</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2500 km</t>
+          <t>3000 km</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -927,14 +897,14 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>+ AED 75/month</t>
+          <t>+ AED 120/month</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://invygo.com/en-ae/dubai/rent-monthly-jac-s3-2023/67729fbc8663257f13ea39d5</t>
+          <t>https://invygo.com/en-ae/dubai/rent-monthly-jac-s3-2023/680f6ad026720d557c758853</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -958,7 +928,7 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>57001 KM</t>
+          <t>50000 KM</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -967,27 +937,27 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>2140</v>
+        <v>2125</v>
       </c>
       <c r="J8" t="n">
-        <v>60</v>
+        <v>405</v>
       </c>
       <c r="K8" t="n">
-        <v>2120</v>
+        <v>2080</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>3 months</t>
+          <t>9 months</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>5000 km</t>
+          <t>4000 km</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>+ AED 90/month</t>
+          <t>+ AED 105/month</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -997,14 +967,14 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>+ AED 75/month</t>
+          <t>+ AED 120/month</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://invygo.com/en-ae/dubai/rent-monthly-jac-s3-2023/67729fbc8663257f13ea39d5</t>
+          <t>https://invygo.com/en-ae/dubai/rent-monthly-jac-s3-2023/686b4b429325fc1bd1b9502a</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1028,7 +998,7 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>57001 KM</t>
+          <t>65000 KM</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1037,17 +1007,17 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>2050</v>
+        <v>1700</v>
       </c>
       <c r="J9" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>2020</v>
+        <v>1700</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>6 months</t>
+          <t>1 month</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1067,14 +1037,14 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>+ AED 75/month</t>
+          <t>+ AED 120/month</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://invygo.com/en-ae/dubai/rent-monthly-jac-s3-2023/67729fbc8663257f13ea39d5</t>
+          <t>https://invygo.com/en-ae/dubai/rent-monthly-jac-s3-2023/686b4b429325fc1bd1b9502a</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1098,7 +1068,7 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>57001 KM</t>
+          <t>65000 KM</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1107,17 +1077,17 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>2140</v>
+        <v>2160</v>
       </c>
       <c r="J10" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>2110</v>
+        <v>2160</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>6 months</t>
+          <t>1 month</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1127,7 +1097,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>+ AED 90/month</t>
+          <t>+ AED 460/month</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1137,14 +1107,14 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>+ AED 75/month</t>
+          <t>+ AED 120/month</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://invygo.com/en-ae/dubai/rent-monthly-jac-s3-2023/67729fbc8663257f13ea39d5</t>
+          <t>https://invygo.com/en-ae/dubai/rent-monthly-jac-s3-2023/686b4b429325fc1bd1b9502a</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1168,7 +1138,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>57001 KM</t>
+          <t>65000 KM</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1177,17 +1147,17 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>2050</v>
+        <v>1700</v>
       </c>
       <c r="J11" t="n">
-        <v>450</v>
+        <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>2000</v>
+        <v>1690</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>9 months</t>
+          <t>3 months</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1207,14 +1177,14 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>+ AED 75/month</t>
+          <t>+ AED 120/month</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://invygo.com/en-ae/dubai/rent-monthly-jac-s3-2023/67729fbc8663257f13ea39d5</t>
+          <t>https://invygo.com/en-ae/dubai/rent-monthly-jac-s3-2023/686b4b429325fc1bd1b9502a</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1238,7 +1208,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>57001 KM</t>
+          <t>65000 KM</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1247,17 +1217,17 @@
         </is>
       </c>
       <c r="I12" t="n">
+        <v>2150</v>
+      </c>
+      <c r="J12" t="n">
+        <v>30</v>
+      </c>
+      <c r="K12" t="n">
         <v>2140</v>
       </c>
-      <c r="J12" t="n">
-        <v>450</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2090</v>
-      </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>9 months</t>
+          <t>3 months</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1267,7 +1237,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>+ AED 90/month</t>
+          <t>+ AED 450/month</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1277,14 +1247,14 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>+ AED 75/month</t>
+          <t>+ AED 120/month</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://invygo.com/en-ae/dubai/rent-monthly-jac-s3-2023/680f6ad026720d725a75885e</t>
+          <t>https://invygo.com/en-ae/dubai/rent-monthly-jac-s3-2023/686b4b429325fc1bd1b9502a</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1308,7 +1278,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>50000 KM</t>
+          <t>65000 KM</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1317,22 +1287,22 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>2020</v>
+        <v>1700</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="K13" t="n">
-        <v>2020</v>
+        <v>1680</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>1 month</t>
+          <t>6 months</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>3000 km</t>
+          <t>2500 km</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1354,7 +1324,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://invygo.com/en-ae/dubai/rent-monthly-jac-s3-2023/680f6ad026720d725a75885e</t>
+          <t>https://invygo.com/en-ae/dubai/rent-monthly-jac-s3-2023/686b4b429325fc1bd1b9502a</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1378,7 +1348,7 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>50000 KM</t>
+          <t>65000 KM</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1387,27 +1357,27 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2130</v>
+        <v>2140</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="K14" t="n">
-        <v>2130</v>
+        <v>2120</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>1 month</t>
+          <t>6 months</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>4000 km</t>
+          <t>5000 km</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>+ AED 110/month</t>
+          <t>+ AED 440/month</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1424,7 +1394,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://invygo.com/en-ae/dubai/rent-monthly-jac-s3-2023/680f6ad026720d725a75885e</t>
+          <t>https://invygo.com/en-ae/dubai/rent-monthly-jac-s3-2023/686b4b429325fc1bd1b9502a</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1448,7 +1418,7 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>50000 KM</t>
+          <t>65000 KM</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1457,22 +1427,22 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2020</v>
+        <v>1700</v>
       </c>
       <c r="J15" t="n">
-        <v>60</v>
+        <v>450</v>
       </c>
       <c r="K15" t="n">
-        <v>2000</v>
+        <v>1650</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>3 months</t>
+          <t>9 months</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>3000 km</t>
+          <t>2500 km</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1494,7 +1464,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://invygo.com/en-ae/dubai/rent-monthly-jac-s3-2023/680f6ad026720d725a75885e</t>
+          <t>https://invygo.com/en-ae/dubai/rent-monthly-jac-s3-2023/686b4b429325fc1bd1b9502a</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1518,7 +1488,7 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>50000 KM</t>
+          <t>65000 KM</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1527,27 +1497,27 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2130</v>
+        <v>2160</v>
       </c>
       <c r="J16" t="n">
-        <v>60</v>
+        <v>450</v>
       </c>
       <c r="K16" t="n">
         <v>2110</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>3 months</t>
+          <t>9 months</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>4000 km</t>
+          <t>5000 km</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>+ AED 110/month</t>
+          <t>+ AED 460/month</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1556,286 +1526,6 @@
         </is>
       </c>
       <c r="P16" t="inlineStr">
-        <is>
-          <t>+ AED 120/month</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>https://invygo.com/en-ae/dubai/rent-monthly-jac-s3-2023/680f6ad026720d725a75885e</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>jac s3 2023</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>JAC</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>50000 KM</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>monthly</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>2020</v>
-      </c>
-      <c r="J17" t="n">
-        <v>180</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1990</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>6 months</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>3000 km</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>No additional cost</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>No additional cost</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>+ AED 120/month</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>https://invygo.com/en-ae/dubai/rent-monthly-jac-s3-2023/680f6ad026720d725a75885e</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>jac s3 2023</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>JAC</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>50000 KM</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>monthly</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>2120</v>
-      </c>
-      <c r="J18" t="n">
-        <v>180</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2090</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>6 months</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>4000 km</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>+ AED 100/month</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>No additional cost</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>+ AED 120/month</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>https://invygo.com/en-ae/dubai/rent-monthly-jac-s3-2023/680f6ad026720d725a75885e</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>jac s3 2023</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>JAC</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>50000 KM</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>monthly</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>2020</v>
-      </c>
-      <c r="J19" t="n">
-        <v>405</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1975</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>9 months</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>3000 km</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>No additional cost</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>No additional cost</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>+ AED 120/month</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>https://invygo.com/en-ae/dubai/rent-monthly-jac-s3-2023/680f6ad026720d725a75885e</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>jac s3 2023</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>JAC</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>50000 KM</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>monthly</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>2125</v>
-      </c>
-      <c r="J20" t="n">
-        <v>405</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2080</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>9 months</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>4000 km</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>+ AED 105/month</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>No additional cost</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
         <is>
           <t>+ AED 120/month</t>
         </is>
